--- a/output.xlsx
+++ b/output.xlsx
@@ -523,14 +523,30 @@
           <t>Hunziker, Stefan [VerfasserIn] and Blankenagel, Michael [VerfasserIn]</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Methodology</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mixed-Method</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Mixed Method is a combination of two different research Methods. Triangulation of their finding may improve the overall result</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -552,10 +568,22 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Systematic Literature Review</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -591,11 +619,27 @@
           <t>Snyder, Hannah</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Methodology</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Systematic Literature Review</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -623,14 +667,34 @@
           <t>Krippendorff, Klaus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cybersec Topics</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Content Analysis</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Content Analysis</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>qualitative research method used to analyze and interpret patterns, themes, and meanings within textual, visual, or multimedia data</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>10.4135/9781071878781</t>
@@ -695,14 +759,30 @@
           <t>Chaffey, D. and Ellis-Chadwick, F.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Performance Metrics</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Quantitive Analysis</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Performance management for digital channels</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -723,14 +803,34 @@
           <t>Schulkind, Andrew [VerfasserIn]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B2B Content Marketing</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Content Marketing</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Campaign Setup</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Content Marketing Strategy, editorial calendar</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -751,14 +851,30 @@
           <t>Pulizzi, J.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B2B Content Marketing</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Content Marketing</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>strategic approach focused on creating and sharing valuable, relevant, and consistent content to attract and retain a clearly defined audience</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -779,14 +895,30 @@
           <t>Hormozi, A.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Content Strategy</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Content Engagement Theory</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>dream outcome X perceived likelihood of achievement / time delay X effort = value</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,14 +939,30 @@
           <t>Aghazadeh, Hashem [VerfasserIn] and Khoshnevis, Mozhde [VerfasserIn]</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Content Strategy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Content Personalization</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>personalized content enhances audience engagement and lead conversion, especially in B2B markets.</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -835,14 +983,34 @@
           <t>Veglis, Andreas [HerausgeberIn]</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Content Strategy</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEO</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>organic traffic search</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Theoretical insights into using SEO to improve organic traffic, search visibility, and sustained engagement</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -863,14 +1031,34 @@
           <t>Herzberger, ca. 20. Jh. [VerfasserIn], Tomas and Jenny, ca. 20. Jh. [VerfasserIn], Sandro</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Content Strategy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEO</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Growth Hacking</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>optimizing customer acquisition, retention, and engagement through an experimental approach</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -891,14 +1079,26 @@
           <t>Clinton, L.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Topics of Interest for the Campaign</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>common cyber security threads</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -919,14 +1119,26 @@
           <t>Buckley, Gerard and Caulfield, Tristan and Becker, Ingolf</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Topics of Interest for the Campaign</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gpdr compliance topos</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>10.48550/arXiv.2110.11905</t>
@@ -955,14 +1167,26 @@
           <t>Ferguson, Donald David Stewart</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Topics of Interest for the Campaign</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>nis2 \&amp; incident response topos</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>10.1365/s43439-023-00097-8</t>
@@ -987,14 +1211,26 @@
           <t>Huang, Ken [HerausgeberIn] and Wang, Yang [HerausgeberIn] and Goertzel, Ben [HerausgeberIn] and Li, Yale [HerausgeberIn] and Wright, Sean [HerausgeberIn] and Ponnapalli, Jyoti [HerausgeberIn]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Topics of Interest for the Campaign</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>it security practices topos</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
